--- a/Battery Model.xlsx
+++ b/Battery Model.xlsx
@@ -9,10 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-400" yWindow="460" windowWidth="16620" windowHeight="16660" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Full" sheetId="1" r:id="rId1"/>
+    <sheet name="Report" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="101">
   <si>
     <t>Battery Characteristcs Comparison Table</t>
   </si>
@@ -327,13 +328,16 @@
   </si>
   <si>
     <t>0-0.1</t>
+  </si>
+  <si>
+    <t>Ultra Capacitor</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -367,8 +371,18 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Avenir Light"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Avenir Heavy"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -387,8 +401,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="14">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -563,13 +583,65 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -583,8 +655,6 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -597,6 +667,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -609,50 +682,65 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="9">
-    <dxf>
-      <font>
-        <color theme="7" tint="0.39994506668294322"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="7" tint="0.39994506668294322"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="7" tint="0.39994506668294322"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="6">
     <dxf>
       <font>
         <color theme="7" tint="0.39994506668294322"/>
@@ -735,8 +823,8 @@
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>6235347</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>2118</xdr:rowOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>205945</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -772,7 +860,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>506430</xdr:colOff>
+      <xdr:colOff>224208</xdr:colOff>
       <xdr:row>49</xdr:row>
       <xdr:rowOff>187959</xdr:rowOff>
     </xdr:to>
@@ -809,8 +897,8 @@
       <xdr:rowOff>182966</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>87946</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>1483378</xdr:colOff>
       <xdr:row>81</xdr:row>
       <xdr:rowOff>8612</xdr:rowOff>
     </xdr:to>
@@ -847,8 +935,8 @@
       <xdr:rowOff>61759</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>1014852</xdr:colOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>1328432</xdr:colOff>
       <xdr:row>47</xdr:row>
       <xdr:rowOff>76810</xdr:rowOff>
     </xdr:to>
@@ -1145,89 +1233,91 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P56"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="81" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+    <sheetView zoomScale="81" workbookViewId="0">
+      <selection sqref="A1:N4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="17" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="38" style="1" customWidth="1"/>
     <col min="2" max="2" width="24" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="19" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.5" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="18.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="21" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="16.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="15.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="19.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="13" width="19.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="21" style="1" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="84.83203125" style="1" bestFit="1" customWidth="1"/>
     <col min="16" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
-      <c r="I1" s="18"/>
-      <c r="J1" s="18"/>
-      <c r="K1" s="18"/>
-      <c r="L1" s="18"/>
-      <c r="M1" s="18"/>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
+      <c r="J1" s="17"/>
+      <c r="K1" s="17"/>
+      <c r="L1" s="17"/>
+      <c r="M1" s="17"/>
+      <c r="N1" s="17"/>
     </row>
     <row r="2" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="18"/>
-      <c r="B2" s="18"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
-      <c r="G2" s="18"/>
-      <c r="H2" s="18"/>
-      <c r="I2" s="18"/>
-      <c r="J2" s="18"/>
-      <c r="K2" s="18"/>
-      <c r="L2" s="18"/>
-      <c r="M2" s="18"/>
+      <c r="A2" s="17"/>
+      <c r="B2" s="17"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="17"/>
+      <c r="I2" s="17"/>
+      <c r="J2" s="17"/>
+      <c r="K2" s="17"/>
+      <c r="L2" s="17"/>
+      <c r="M2" s="17"/>
+      <c r="N2" s="17"/>
     </row>
     <row r="3" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="18"/>
-      <c r="B3" s="18"/>
-      <c r="C3" s="18"/>
-      <c r="D3" s="18"/>
-      <c r="E3" s="18"/>
-      <c r="F3" s="18"/>
-      <c r="G3" s="18"/>
-      <c r="H3" s="18"/>
-      <c r="I3" s="18"/>
-      <c r="J3" s="18"/>
-      <c r="K3" s="18"/>
-      <c r="L3" s="18"/>
-      <c r="M3" s="18"/>
+      <c r="A3" s="17"/>
+      <c r="B3" s="17"/>
+      <c r="C3" s="17"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="17"/>
+      <c r="G3" s="17"/>
+      <c r="H3" s="17"/>
+      <c r="I3" s="17"/>
+      <c r="J3" s="17"/>
+      <c r="K3" s="17"/>
+      <c r="L3" s="17"/>
+      <c r="M3" s="17"/>
+      <c r="N3" s="17"/>
     </row>
     <row r="4" spans="1:14" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="18"/>
-      <c r="B4" s="18"/>
-      <c r="C4" s="18"/>
-      <c r="D4" s="18"/>
-      <c r="E4" s="18"/>
-      <c r="F4" s="18"/>
-      <c r="G4" s="18"/>
-      <c r="H4" s="18"/>
-      <c r="I4" s="18"/>
-      <c r="J4" s="18"/>
-      <c r="K4" s="18"/>
-      <c r="L4" s="18"/>
-      <c r="M4" s="18"/>
+      <c r="A4" s="17"/>
+      <c r="B4" s="17"/>
+      <c r="C4" s="17"/>
+      <c r="D4" s="17"/>
+      <c r="E4" s="17"/>
+      <c r="F4" s="17"/>
+      <c r="G4" s="17"/>
+      <c r="H4" s="17"/>
+      <c r="I4" s="17"/>
+      <c r="J4" s="17"/>
+      <c r="K4" s="17"/>
+      <c r="L4" s="17"/>
+      <c r="M4" s="17"/>
+      <c r="N4" s="17"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
@@ -1236,31 +1326,31 @@
       <c r="B5" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="14" t="s">
+      <c r="C5" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="15" t="s">
+      <c r="D5" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="17"/>
-      <c r="F5" s="15" t="s">
+      <c r="E5" s="16"/>
+      <c r="F5" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="G5" s="16"/>
-      <c r="H5" s="17"/>
-      <c r="I5" s="13" t="s">
+      <c r="G5" s="15"/>
+      <c r="H5" s="16"/>
+      <c r="I5" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="J5" s="13" t="s">
+      <c r="J5" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="K5" s="13" t="s">
+      <c r="K5" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="L5" s="13" t="s">
+      <c r="L5" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="M5" s="20" t="s">
+      <c r="M5" s="18" t="s">
         <v>77</v>
       </c>
       <c r="N5" s="19"/>
@@ -1270,36 +1360,36 @@
       <c r="B6" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="11"/>
-      <c r="D6" s="12" t="s">
+      <c r="C6" s="9"/>
+      <c r="D6" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="E6" s="12" t="s">
+      <c r="E6" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="F6" s="12" t="s">
+      <c r="F6" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="G6" s="12" t="s">
+      <c r="G6" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="H6" s="12" t="s">
+      <c r="H6" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="I6" s="13" t="s">
+      <c r="I6" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="J6" s="12"/>
-      <c r="K6" s="12" t="s">
+      <c r="J6" s="10"/>
+      <c r="K6" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="L6" s="12" t="s">
+      <c r="L6" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="M6" s="13" t="s">
+      <c r="M6" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="N6" s="13" t="s">
+      <c r="N6" s="11" t="s">
         <v>78</v>
       </c>
     </row>
@@ -1308,74 +1398,74 @@
       <c r="B7" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D7" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="E7" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="F7" s="2" t="s">
+      <c r="F7" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="G7" s="2" t="s">
+      <c r="G7" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="H7" s="2" t="s">
+      <c r="H7" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="I7" s="2" t="s">
+      <c r="I7" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="J7" s="2" t="s">
+      <c r="J7" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="K7" s="2"/>
-      <c r="L7" s="2"/>
-      <c r="M7" s="2"/>
-      <c r="N7" s="2"/>
+      <c r="K7" s="10"/>
+      <c r="L7" s="10"/>
+      <c r="M7" s="10"/>
+      <c r="N7" s="10"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="4"/>
       <c r="B8" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C8" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="D8" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="E8" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="F8" s="2" t="s">
+      <c r="F8" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="G8" s="2" t="s">
+      <c r="G8" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="H8" s="2" t="s">
+      <c r="H8" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="I8" s="2" t="s">
+      <c r="I8" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="J8" s="2" t="s">
+      <c r="J8" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="K8" s="2" t="s">
+      <c r="K8" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="L8" s="2" t="s">
+      <c r="L8" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="M8" s="2" t="s">
+      <c r="M8" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="N8" s="2" t="s">
+      <c r="N8" s="10" t="s">
         <v>81</v>
       </c>
     </row>
@@ -1384,40 +1474,40 @@
       <c r="B9" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="C9" s="9" t="s">
+      <c r="C9" s="20" t="s">
         <v>54</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="D9" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="E9" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="F9" s="2" t="s">
+      <c r="F9" s="10" t="s">
         <v>98</v>
       </c>
-      <c r="G9" s="2" t="s">
+      <c r="G9" s="10" t="s">
         <v>98</v>
       </c>
-      <c r="H9" s="2" t="s">
+      <c r="H9" s="10" t="s">
         <v>98</v>
       </c>
-      <c r="I9" s="2" t="s">
+      <c r="I9" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="J9" s="2" t="s">
+      <c r="J9" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="K9" s="2" t="s">
+      <c r="K9" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="L9" s="2" t="s">
+      <c r="L9" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="M9" s="2" t="s">
+      <c r="M9" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="N9" s="2" t="s">
+      <c r="N9" s="10" t="s">
         <v>82</v>
       </c>
     </row>
@@ -1428,40 +1518,40 @@
       <c r="B10" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="C10" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="D10" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="E10" s="2" t="s">
+      <c r="E10" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="F10" s="2" t="s">
+      <c r="F10" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="G10" s="2" t="s">
+      <c r="G10" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="H10" s="2" t="s">
+      <c r="H10" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="I10" s="2">
+      <c r="I10" s="10">
         <v>2500</v>
       </c>
-      <c r="J10" s="2" t="s">
+      <c r="J10" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="K10" s="2" t="s">
+      <c r="K10" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="L10" s="2" t="s">
+      <c r="L10" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="M10" s="2" t="s">
+      <c r="M10" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="N10" s="2" t="s">
+      <c r="N10" s="10" t="s">
         <v>90</v>
       </c>
     </row>
@@ -1470,99 +1560,100 @@
       <c r="B11" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="C11" s="9" t="s">
+      <c r="C11" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="D11" s="10" t="s">
+      <c r="D11" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="E11" s="10" t="s">
+      <c r="E11" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="F11" s="10" t="s">
+      <c r="F11" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="G11" s="10" t="s">
+      <c r="G11" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="H11" s="10" t="s">
+      <c r="H11" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="I11" s="10"/>
-      <c r="J11" s="10"/>
-      <c r="K11" s="10"/>
-      <c r="L11" s="10"/>
-      <c r="M11" s="2"/>
-      <c r="N11" s="2"/>
+      <c r="I11" s="21"/>
+      <c r="J11" s="21"/>
+      <c r="K11" s="21"/>
+      <c r="L11" s="21"/>
+      <c r="M11" s="10"/>
+      <c r="N11" s="10"/>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="4"/>
       <c r="B12" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C12" s="9" t="s">
+      <c r="C12" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="D12" s="10" t="s">
+      <c r="D12" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="E12" s="10" t="s">
+      <c r="E12" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="F12" s="10" t="s">
+      <c r="F12" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="G12" s="10" t="s">
+      <c r="G12" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="H12" s="10" t="s">
+      <c r="H12" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="I12" s="10" t="s">
+      <c r="I12" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="J12" s="10" t="s">
+      <c r="J12" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="K12" s="10" t="s">
+      <c r="K12" s="21" t="s">
         <v>73</v>
       </c>
-      <c r="L12" s="10" t="s">
+      <c r="L12" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="M12" s="2" t="s">
+      <c r="M12" s="10" t="s">
         <v>84</v>
       </c>
+      <c r="N12" s="13"/>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="4"/>
       <c r="B13" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="C13" s="5" t="s">
+      <c r="C13" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="D13" s="2" t="s">
+      <c r="D13" s="10" t="s">
         <v>95</v>
       </c>
-      <c r="E13" s="2" t="s">
+      <c r="E13" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
-      <c r="I13" s="2" t="s">
+      <c r="F13" s="10"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="10"/>
+      <c r="I13" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="J13" s="2" t="s">
+      <c r="J13" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="K13" s="2"/>
-      <c r="L13" s="2"/>
-      <c r="M13" s="2">
+      <c r="K13" s="10"/>
+      <c r="L13" s="10"/>
+      <c r="M13" s="10">
         <v>100000</v>
       </c>
-      <c r="N13" s="2" t="s">
+      <c r="N13" s="10" t="s">
         <v>89</v>
       </c>
     </row>
@@ -1571,40 +1662,40 @@
       <c r="B14" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="C14" s="5" t="s">
+      <c r="C14" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="D14" s="2" t="s">
+      <c r="D14" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="E14" s="2" t="s">
+      <c r="E14" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="F14" s="2" t="s">
+      <c r="F14" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="G14" s="2" t="s">
+      <c r="G14" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="H14" s="2" t="s">
+      <c r="H14" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="I14" s="2" t="s">
+      <c r="I14" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="J14" s="2" t="s">
+      <c r="J14" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="K14" s="2" t="s">
+      <c r="K14" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="L14" s="2" t="s">
+      <c r="L14" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="M14" s="2" t="s">
+      <c r="M14" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="N14" s="2" t="s">
+      <c r="N14" s="10" t="s">
         <v>69</v>
       </c>
     </row>
@@ -1615,40 +1706,40 @@
       <c r="B15" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="C15" s="5" t="s">
+      <c r="C15" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="D15" s="2" t="s">
+      <c r="D15" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="E15" s="21">
+      <c r="E15" s="22">
         <v>1</v>
       </c>
-      <c r="F15" s="2">
+      <c r="F15" s="10">
         <v>0.1</v>
       </c>
-      <c r="G15" s="2">
+      <c r="G15" s="10">
         <v>0.1</v>
       </c>
-      <c r="H15" s="2">
+      <c r="H15" s="10">
         <v>0.1</v>
       </c>
-      <c r="I15" s="2">
+      <c r="I15" s="10">
         <v>20</v>
       </c>
-      <c r="J15" s="2">
+      <c r="J15" s="10">
         <v>15</v>
       </c>
-      <c r="K15" s="2">
+      <c r="K15" s="10">
         <v>0.01</v>
       </c>
-      <c r="L15" s="2">
+      <c r="L15" s="10">
         <v>0.01</v>
       </c>
-      <c r="M15" s="2">
+      <c r="M15" s="10">
         <v>0.4</v>
       </c>
-      <c r="N15" s="2" t="s">
+      <c r="N15" s="10" t="s">
         <v>86</v>
       </c>
     </row>
@@ -1694,8 +1785,8 @@
         <v>87</v>
       </c>
     </row>
-    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B17" s="1" t="s">
+    <row r="17" spans="2:14" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="8" t="s">
         <v>22</v>
       </c>
       <c r="C17" s="1" t="s">
@@ -1773,20 +1864,568 @@
   <mergeCells count="4">
     <mergeCell ref="F5:H5"/>
     <mergeCell ref="D5:E5"/>
-    <mergeCell ref="A1:M4"/>
     <mergeCell ref="M5:N5"/>
+    <mergeCell ref="A1:N4"/>
   </mergeCells>
   <conditionalFormatting sqref="M7:N11 M12 N13 C7:L16">
-    <cfRule type="containsBlanks" dxfId="7" priority="2">
+    <cfRule type="containsBlanks" dxfId="3" priority="2">
       <formula>LEN(TRIM(C7))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M14:N15 M13">
-    <cfRule type="containsBlanks" dxfId="6" priority="1">
+    <cfRule type="containsBlanks" dxfId="2" priority="1">
       <formula>LEN(TRIM(M13))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="24" bestFit="1" customWidth="1"/>
+    <col min="2" max="9" width="15.83203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="15.83203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
+      <c r="J1" s="17"/>
+      <c r="K1" s="17"/>
+      <c r="L1" s="17"/>
+      <c r="M1" s="17"/>
+    </row>
+    <row r="2" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="17"/>
+      <c r="B2" s="17"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="17"/>
+      <c r="I2" s="17"/>
+      <c r="J2" s="17"/>
+      <c r="K2" s="17"/>
+      <c r="L2" s="17"/>
+      <c r="M2" s="17"/>
+    </row>
+    <row r="3" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="17"/>
+      <c r="B3" s="17"/>
+      <c r="C3" s="17"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="17"/>
+      <c r="G3" s="17"/>
+      <c r="H3" s="17"/>
+      <c r="I3" s="17"/>
+      <c r="J3" s="17"/>
+      <c r="K3" s="17"/>
+      <c r="L3" s="17"/>
+      <c r="M3" s="17"/>
+    </row>
+    <row r="4" spans="1:13" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="17"/>
+      <c r="B4" s="17"/>
+      <c r="C4" s="17"/>
+      <c r="D4" s="17"/>
+      <c r="E4" s="17"/>
+      <c r="F4" s="17"/>
+      <c r="G4" s="17"/>
+      <c r="H4" s="17"/>
+      <c r="I4" s="17"/>
+      <c r="J4" s="17"/>
+      <c r="K4" s="17"/>
+      <c r="L4" s="17"/>
+      <c r="M4" s="17"/>
+    </row>
+    <row r="5" spans="1:13" ht="17" x14ac:dyDescent="0.25">
+      <c r="A5" s="33" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="28"/>
+      <c r="E5" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" s="28"/>
+      <c r="G5" s="28"/>
+      <c r="H5" s="29" t="s">
+        <v>33</v>
+      </c>
+      <c r="I5" s="27" t="s">
+        <v>38</v>
+      </c>
+      <c r="J5" s="30" t="s">
+        <v>42</v>
+      </c>
+      <c r="K5" s="31"/>
+      <c r="L5" s="28" t="s">
+        <v>77</v>
+      </c>
+      <c r="M5" s="28"/>
+    </row>
+    <row r="6" spans="1:13" ht="17" x14ac:dyDescent="0.25">
+      <c r="A6" s="34" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="32"/>
+      <c r="C6" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="F6" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="G6" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="H6" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="I6" s="32"/>
+      <c r="J6" s="29" t="s">
+        <v>46</v>
+      </c>
+      <c r="K6" s="29" t="s">
+        <v>48</v>
+      </c>
+      <c r="L6" s="29" t="s">
+        <v>79</v>
+      </c>
+      <c r="M6" s="29" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="17" x14ac:dyDescent="0.25">
+      <c r="A7" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="B7" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="C7" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="D7" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="E7" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="F7" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="G7" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="H7" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="I7" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="J7" s="23"/>
+      <c r="K7" s="23"/>
+      <c r="L7" s="23"/>
+      <c r="M7" s="23"/>
+    </row>
+    <row r="8" spans="1:13" ht="17" x14ac:dyDescent="0.25">
+      <c r="A8" s="34" t="s">
+        <v>51</v>
+      </c>
+      <c r="B8" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="C8" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="D8" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="E8" s="23" t="s">
+        <v>97</v>
+      </c>
+      <c r="F8" s="23" t="s">
+        <v>97</v>
+      </c>
+      <c r="G8" s="23" t="s">
+        <v>97</v>
+      </c>
+      <c r="H8" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="I8" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="J8" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="K8" s="23" t="s">
+        <v>72</v>
+      </c>
+      <c r="L8" s="23" t="s">
+        <v>80</v>
+      </c>
+      <c r="M8" s="23" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="17" x14ac:dyDescent="0.25">
+      <c r="A9" s="34" t="s">
+        <v>50</v>
+      </c>
+      <c r="B9" s="24" t="s">
+        <v>54</v>
+      </c>
+      <c r="C9" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="D9" s="23" t="s">
+        <v>92</v>
+      </c>
+      <c r="E9" s="23" t="s">
+        <v>98</v>
+      </c>
+      <c r="F9" s="23" t="s">
+        <v>98</v>
+      </c>
+      <c r="G9" s="23" t="s">
+        <v>98</v>
+      </c>
+      <c r="H9" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="I9" s="23" t="s">
+        <v>57</v>
+      </c>
+      <c r="J9" s="23" t="s">
+        <v>71</v>
+      </c>
+      <c r="K9" s="23" t="s">
+        <v>71</v>
+      </c>
+      <c r="L9" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="M9" s="23" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="17" x14ac:dyDescent="0.25">
+      <c r="A10" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="B10" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="D10" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="E10" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="F10" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="G10" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="H10" s="23">
+        <v>2500</v>
+      </c>
+      <c r="I10" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="J10" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="K10" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="L10" s="23" t="s">
+        <v>83</v>
+      </c>
+      <c r="M10" s="23" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="17" x14ac:dyDescent="0.25">
+      <c r="A11" s="34" t="s">
+        <v>27</v>
+      </c>
+      <c r="B11" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="C11" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="D11" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="E11" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="F11" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="G11" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="H11" s="24"/>
+      <c r="I11" s="24"/>
+      <c r="J11" s="24"/>
+      <c r="K11" s="24"/>
+      <c r="L11" s="23"/>
+      <c r="M11" s="23"/>
+    </row>
+    <row r="12" spans="1:13" ht="17" x14ac:dyDescent="0.25">
+      <c r="A12" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="B12" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="D12" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="E12" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="F12" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="G12" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="H12" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="I12" s="24" t="s">
+        <v>44</v>
+      </c>
+      <c r="J12" s="24" t="s">
+        <v>73</v>
+      </c>
+      <c r="K12" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="L12" s="23" t="s">
+        <v>84</v>
+      </c>
+      <c r="M12" s="23"/>
+    </row>
+    <row r="13" spans="1:13" ht="17" x14ac:dyDescent="0.25">
+      <c r="A13" s="34" t="s">
+        <v>4</v>
+      </c>
+      <c r="B13" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="C13" s="23" t="s">
+        <v>95</v>
+      </c>
+      <c r="D13" s="23" t="s">
+        <v>93</v>
+      </c>
+      <c r="E13" s="23"/>
+      <c r="F13" s="23"/>
+      <c r="G13" s="23"/>
+      <c r="H13" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="I13" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="J13" s="23"/>
+      <c r="K13" s="23"/>
+      <c r="L13" s="23">
+        <v>100000</v>
+      </c>
+      <c r="M13" s="23" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" ht="17" x14ac:dyDescent="0.25">
+      <c r="A14" s="34" t="s">
+        <v>64</v>
+      </c>
+      <c r="B14" s="23" t="s">
+        <v>58</v>
+      </c>
+      <c r="C14" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="D14" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="E14" s="23" t="s">
+        <v>99</v>
+      </c>
+      <c r="F14" s="23" t="s">
+        <v>99</v>
+      </c>
+      <c r="G14" s="23" t="s">
+        <v>99</v>
+      </c>
+      <c r="H14" s="23" t="s">
+        <v>60</v>
+      </c>
+      <c r="I14" s="23" t="s">
+        <v>69</v>
+      </c>
+      <c r="J14" s="23" t="s">
+        <v>74</v>
+      </c>
+      <c r="K14" s="23" t="s">
+        <v>75</v>
+      </c>
+      <c r="L14" s="23" t="s">
+        <v>85</v>
+      </c>
+      <c r="M14" s="23" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" ht="17" x14ac:dyDescent="0.25">
+      <c r="A15" s="34" t="s">
+        <v>66</v>
+      </c>
+      <c r="B15" s="23" t="s">
+        <v>67</v>
+      </c>
+      <c r="C15" s="23" t="s">
+        <v>68</v>
+      </c>
+      <c r="D15" s="25">
+        <v>1</v>
+      </c>
+      <c r="E15" s="23">
+        <v>0.1</v>
+      </c>
+      <c r="F15" s="23">
+        <v>0.1</v>
+      </c>
+      <c r="G15" s="23">
+        <v>0.1</v>
+      </c>
+      <c r="H15" s="23">
+        <v>20</v>
+      </c>
+      <c r="I15" s="23">
+        <v>15</v>
+      </c>
+      <c r="J15" s="23">
+        <v>0.01</v>
+      </c>
+      <c r="K15" s="23">
+        <v>0.01</v>
+      </c>
+      <c r="L15" s="23">
+        <v>0.4</v>
+      </c>
+      <c r="M15" s="23" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="35" t="s">
+        <v>62</v>
+      </c>
+      <c r="B16" s="26" t="s">
+        <v>63</v>
+      </c>
+      <c r="C16" s="26" t="s">
+        <v>63</v>
+      </c>
+      <c r="D16" s="26" t="s">
+        <v>63</v>
+      </c>
+      <c r="E16" s="26" t="s">
+        <v>63</v>
+      </c>
+      <c r="F16" s="26" t="s">
+        <v>63</v>
+      </c>
+      <c r="G16" s="26" t="s">
+        <v>63</v>
+      </c>
+      <c r="H16" s="26" t="s">
+        <v>63</v>
+      </c>
+      <c r="I16" s="26" t="s">
+        <v>63</v>
+      </c>
+      <c r="J16" s="26" t="s">
+        <v>76</v>
+      </c>
+      <c r="K16" s="26" t="s">
+        <v>76</v>
+      </c>
+      <c r="L16" s="26" t="s">
+        <v>87</v>
+      </c>
+      <c r="M16" s="26" t="s">
+        <v>87</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="A1:M4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="E5:G5"/>
+    <mergeCell ref="L5:M5"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="I5:I6"/>
+    <mergeCell ref="J5:K5"/>
+  </mergeCells>
+  <conditionalFormatting sqref="L7:M11 L12 M13 B7:K16">
+    <cfRule type="containsBlanks" dxfId="1" priority="2">
+      <formula>LEN(TRIM(B7))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L14:M15 L13">
+    <cfRule type="containsBlanks" dxfId="0" priority="1">
+      <formula>LEN(TRIM(L13))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>